--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF006_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF006_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF006_休暇申請\UK2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,6 +53,7 @@
     <definedName name="kkkk" hidden="1">#REF!</definedName>
     <definedName name="ｌ" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｌ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">休暇申請!$A$1:$L$29</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
     <definedName name="Ver002001006特休残管理対応" hidden="1">#REF!</definedName>
     <definedName name="wrn.MIND." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -90,14 +91,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -118,7 +119,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -421,50 +422,50 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -514,7 +515,7 @@
         <xdr:cNvPr id="2" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -522,8 +523,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2821116" y="223630"/>
-          <a:ext cx="546241" cy="522000"/>
+          <a:off x="3164016" y="223630"/>
+          <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -533,7 +534,7 @@
           <xdr:cNvPr id="3" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -587,7 +588,7 @@
           <xdr:cNvPr id="4" name="直線コネクタ 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -627,7 +628,7 @@
           <xdr:cNvPr id="5" name="直線コネクタ 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -667,7 +668,7 @@
           <xdr:cNvPr id="6" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -730,7 +731,7 @@
           <xdr:cNvPr id="7" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -793,7 +794,7 @@
           <xdr:cNvPr id="8" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -872,7 +873,7 @@
         <xdr:cNvPr id="9" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -880,8 +881,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3370963" y="223630"/>
-          <a:ext cx="555766" cy="522000"/>
+          <a:off x="3780538" y="223630"/>
+          <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -891,7 +892,7 @@
           <xdr:cNvPr id="10" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -945,7 +946,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -985,7 +986,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1025,7 +1026,7 @@
           <xdr:cNvPr id="13" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1088,7 +1089,7 @@
           <xdr:cNvPr id="14" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1151,7 +1152,7 @@
           <xdr:cNvPr id="15" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1230,7 +1231,7 @@
         <xdr:cNvPr id="16" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,8 +1239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3928856" y="223630"/>
-          <a:ext cx="546241" cy="522000"/>
+          <a:off x="4405106" y="223630"/>
+          <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -1249,7 +1250,7 @@
           <xdr:cNvPr id="17" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1303,7 +1304,7 @@
           <xdr:cNvPr id="18" name="直線コネクタ 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1343,7 +1344,7 @@
           <xdr:cNvPr id="19" name="直線コネクタ 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1383,7 +1384,7 @@
           <xdr:cNvPr id="20" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1446,7 +1447,7 @@
           <xdr:cNvPr id="21" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1509,7 +1510,7 @@
           <xdr:cNvPr id="22" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1588,7 +1589,7 @@
         <xdr:cNvPr id="23" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,8 +1597,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4475864" y="223630"/>
-          <a:ext cx="555766" cy="522000"/>
+          <a:off x="5018789" y="223630"/>
+          <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -1607,7 +1608,7 @@
           <xdr:cNvPr id="24" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1661,7 +1662,7 @@
           <xdr:cNvPr id="25" name="直線コネクタ 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1701,7 +1702,7 @@
           <xdr:cNvPr id="26" name="直線コネクタ 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1741,7 +1742,7 @@
           <xdr:cNvPr id="27" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1804,7 +1805,7 @@
           <xdr:cNvPr id="28" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1867,7 +1868,7 @@
           <xdr:cNvPr id="29" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1946,7 +1947,7 @@
         <xdr:cNvPr id="30" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,8 +1955,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5033757" y="223630"/>
-          <a:ext cx="546241" cy="522000"/>
+          <a:off x="5643357" y="223630"/>
+          <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -1965,7 +1966,7 @@
           <xdr:cNvPr id="31" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2019,7 +2020,7 @@
           <xdr:cNvPr id="32" name="直線コネクタ 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2059,7 +2060,7 @@
           <xdr:cNvPr id="33" name="直線コネクタ 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2099,7 +2100,7 @@
           <xdr:cNvPr id="34" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2155,7 +2156,7 @@
           <xdr:cNvPr id="35" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2218,7 +2219,7 @@
           <xdr:cNvPr id="36" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2672,16 +2673,16 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="0.75" style="2" customWidth="1"/>
-    <col min="2" max="11" width="7.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="0.75" style="2" customWidth="1"/>
-    <col min="13" max="14" width="7.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="1.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
+    <col min="2" max="11" width="7.21875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0.77734375" style="2" customWidth="1"/>
+    <col min="13" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="2.5" style="2"/>
+    <col min="18" max="16384" width="2.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -2705,10 +2706,10 @@
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2719,10 +2720,10 @@
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2746,142 +2747,142 @@
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="40"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="3.75" customHeight="1">
@@ -2900,16 +2901,16 @@
     </row>
     <row r="17" spans="1:12" ht="90" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="3.75" customHeight="1">
@@ -2942,16 +2943,16 @@
     </row>
     <row r="20" spans="1:12" ht="74.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="3.75" customHeight="1">
@@ -3161,16 +3162,6 @@
     <row r="44" spans="2:11" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
@@ -3187,6 +3178,16 @@
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="D12:K12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF006_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF006_template.xlsx
@@ -422,6 +422,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -445,27 +466,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="2" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -534,7 +534,7 @@
           <xdr:cNvPr id="3" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -588,7 +588,7 @@
           <xdr:cNvPr id="4" name="直線コネクタ 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -628,7 +628,7 @@
           <xdr:cNvPr id="5" name="直線コネクタ 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -668,7 +668,7 @@
           <xdr:cNvPr id="6" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -706,16 +706,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -731,7 +721,7 @@
           <xdr:cNvPr id="7" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -769,16 +759,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -794,7 +774,7 @@
           <xdr:cNvPr id="8" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -832,16 +812,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -873,7 +843,7 @@
         <xdr:cNvPr id="9" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -892,7 +862,7 @@
           <xdr:cNvPr id="10" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -946,7 +916,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -986,7 +956,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1026,7 +996,7 @@
           <xdr:cNvPr id="13" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1089,7 +1059,7 @@
           <xdr:cNvPr id="14" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1127,16 +1097,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1152,7 +1112,7 @@
           <xdr:cNvPr id="15" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1190,16 +1150,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1231,7 +1181,7 @@
         <xdr:cNvPr id="16" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1200,7 @@
           <xdr:cNvPr id="17" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1304,7 +1254,7 @@
           <xdr:cNvPr id="18" name="直線コネクタ 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1344,7 +1294,7 @@
           <xdr:cNvPr id="19" name="直線コネクタ 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1334,7 @@
           <xdr:cNvPr id="20" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,16 +1372,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1447,7 +1387,7 @@
           <xdr:cNvPr id="21" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1485,16 +1425,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1510,7 +1440,7 @@
           <xdr:cNvPr id="22" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1548,16 +1478,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1589,7 +1509,7 @@
         <xdr:cNvPr id="23" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1528,7 @@
           <xdr:cNvPr id="24" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1662,7 +1582,7 @@
           <xdr:cNvPr id="25" name="直線コネクタ 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1702,7 +1622,7 @@
           <xdr:cNvPr id="26" name="直線コネクタ 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1742,7 +1662,7 @@
           <xdr:cNvPr id="27" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1780,16 +1700,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1805,7 +1715,7 @@
           <xdr:cNvPr id="28" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1843,16 +1753,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1868,7 +1768,7 @@
           <xdr:cNvPr id="29" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1906,16 +1806,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1947,7 +1837,7 @@
         <xdr:cNvPr id="30" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1856,7 @@
           <xdr:cNvPr id="31" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2020,7 +1910,7 @@
           <xdr:cNvPr id="32" name="直線コネクタ 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2060,7 +1950,7 @@
           <xdr:cNvPr id="33" name="直線コネクタ 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2100,7 +1990,7 @@
           <xdr:cNvPr id="34" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2138,16 +2028,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t>  </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2156,7 +2043,7 @@
           <xdr:cNvPr id="35" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2194,16 +2081,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2219,7 +2096,7 @@
           <xdr:cNvPr id="36" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2257,16 +2134,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2706,10 +2573,10 @@
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2720,10 +2587,10 @@
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2747,142 +2614,142 @@
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="3.75" customHeight="1">
@@ -2901,16 +2768,16 @@
     </row>
     <row r="17" spans="1:12" ht="90" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="3.75" customHeight="1">
@@ -2943,16 +2810,16 @@
     </row>
     <row r="20" spans="1:12" ht="74.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="3.75" customHeight="1">
@@ -3162,6 +3029,16 @@
     <row r="44" spans="2:11" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
@@ -3178,16 +3055,6 @@
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="D12:K12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF006_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF006_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UKworkspace2\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -422,50 +422,50 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="2" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -534,7 +534,7 @@
           <xdr:cNvPr id="3" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -588,7 +588,7 @@
           <xdr:cNvPr id="4" name="直線コネクタ 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -628,7 +628,7 @@
           <xdr:cNvPr id="5" name="直線コネクタ 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -668,7 +668,7 @@
           <xdr:cNvPr id="6" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -710,8 +710,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -721,7 +721,7 @@
           <xdr:cNvPr id="7" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -763,8 +763,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -774,7 +774,7 @@
           <xdr:cNvPr id="8" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -816,8 +816,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -843,7 +843,7 @@
         <xdr:cNvPr id="9" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -862,7 +862,7 @@
           <xdr:cNvPr id="10" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -916,7 +916,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -956,7 +956,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -996,7 +996,7 @@
           <xdr:cNvPr id="13" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1059,7 +1059,7 @@
           <xdr:cNvPr id="14" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1101,8 +1101,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1112,7 +1112,7 @@
           <xdr:cNvPr id="15" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1154,8 +1154,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1181,7 +1181,7 @@
         <xdr:cNvPr id="16" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1200,7 @@
           <xdr:cNvPr id="17" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1254,7 +1254,7 @@
           <xdr:cNvPr id="18" name="直線コネクタ 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1294,7 +1294,7 @@
           <xdr:cNvPr id="19" name="直線コネクタ 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1334,7 +1334,7 @@
           <xdr:cNvPr id="20" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1376,8 +1376,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1387,7 +1387,7 @@
           <xdr:cNvPr id="21" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1429,8 +1429,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1440,7 +1440,7 @@
           <xdr:cNvPr id="22" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1482,8 +1482,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1509,7 +1509,7 @@
         <xdr:cNvPr id="23" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1528,7 @@
           <xdr:cNvPr id="24" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1582,7 +1582,7 @@
           <xdr:cNvPr id="25" name="直線コネクタ 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1622,7 +1622,7 @@
           <xdr:cNvPr id="26" name="直線コネクタ 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1662,7 +1662,7 @@
           <xdr:cNvPr id="27" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1704,8 +1704,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1715,7 +1715,7 @@
           <xdr:cNvPr id="28" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1757,8 +1757,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1768,7 +1768,7 @@
           <xdr:cNvPr id="29" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1810,8 +1810,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1837,7 +1837,7 @@
         <xdr:cNvPr id="30" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1856,7 @@
           <xdr:cNvPr id="31" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1910,7 +1910,7 @@
           <xdr:cNvPr id="32" name="直線コネクタ 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1950,7 +1950,7 @@
           <xdr:cNvPr id="33" name="直線コネクタ 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1990,7 +1990,7 @@
           <xdr:cNvPr id="34" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2032,8 +2032,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2043,7 +2043,7 @@
           <xdr:cNvPr id="35" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2085,8 +2085,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2096,7 +2096,7 @@
           <xdr:cNvPr id="36" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2138,8 +2138,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2573,10 +2573,10 @@
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2587,10 +2587,10 @@
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2614,142 +2614,142 @@
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="40"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="3.75" customHeight="1">
@@ -2768,16 +2768,16 @@
     </row>
     <row r="17" spans="1:12" ht="90" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="3.75" customHeight="1">
@@ -2810,16 +2810,16 @@
     </row>
     <row r="20" spans="1:12" ht="74.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="3.75" customHeight="1">
@@ -3029,16 +3029,6 @@
     <row r="44" spans="2:11" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
@@ -3055,6 +3045,16 @@
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="D12:K12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF006_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF006_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="休暇申請" sheetId="29" r:id="rId1"/>
@@ -53,7 +53,6 @@
     <definedName name="kkkk" hidden="1">#REF!</definedName>
     <definedName name="ｌ" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｌ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">休暇申請!$A$1:$L$29</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
     <definedName name="Ver002001006特休残管理対応" hidden="1">#REF!</definedName>
     <definedName name="wrn.MIND." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -710,8 +709,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -763,8 +762,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -816,8 +815,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1034,16 +1033,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1101,8 +1090,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1154,8 +1143,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1376,8 +1365,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1429,8 +1418,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1482,8 +1471,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1704,8 +1693,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1757,8 +1746,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1810,8 +1799,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2032,8 +2021,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2085,8 +2074,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2138,8 +2127,8 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF006_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF006_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UKworkspace2\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF006_休暇申請\Ver4~\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3272E8-AF40-4317-A674-9AE256D64288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="4005" yWindow="1965" windowWidth="20100" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="休暇申請" sheetId="29" r:id="rId1"/>
@@ -74,18 +75,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -125,7 +120,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="源ノ角ゴシック JP Normal"/>
+      <name val="源ノ角ゴシック Normal"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -355,6 +350,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +372,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,6 +401,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -406,6 +440,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -418,62 +461,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2 2" xfId="5"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,7 +509,7 @@
         <xdr:cNvPr id="2" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -533,7 +528,7 @@
           <xdr:cNvPr id="3" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -576,8 +571,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -587,7 +582,7 @@
           <xdr:cNvPr id="4" name="直線コネクタ 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -627,7 +622,7 @@
           <xdr:cNvPr id="5" name="直線コネクタ 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -667,7 +662,7 @@
           <xdr:cNvPr id="6" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -705,12 +700,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -720,7 +725,7 @@
           <xdr:cNvPr id="7" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -758,12 +763,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -773,7 +788,7 @@
           <xdr:cNvPr id="8" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -811,12 +826,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -842,7 +867,7 @@
         <xdr:cNvPr id="9" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -861,7 +886,7 @@
           <xdr:cNvPr id="10" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -904,8 +929,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -915,7 +940,7 @@
           <xdr:cNvPr id="11" name="直線コネクタ 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -955,7 +980,7 @@
           <xdr:cNvPr id="12" name="直線コネクタ 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -995,7 +1020,7 @@
           <xdr:cNvPr id="13" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1033,12 +1058,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1048,7 +1083,7 @@
           <xdr:cNvPr id="14" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1086,12 +1121,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1101,7 +1146,7 @@
           <xdr:cNvPr id="15" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1139,12 +1184,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1170,7 +1225,7 @@
         <xdr:cNvPr id="16" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1189,7 +1244,7 @@
           <xdr:cNvPr id="17" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1232,8 +1287,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1243,7 +1298,7 @@
           <xdr:cNvPr id="18" name="直線コネクタ 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1283,7 +1338,7 @@
           <xdr:cNvPr id="19" name="直線コネクタ 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1323,7 +1378,7 @@
           <xdr:cNvPr id="20" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1361,12 +1416,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1376,7 +1441,7 @@
           <xdr:cNvPr id="21" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1414,12 +1479,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1429,7 +1504,7 @@
           <xdr:cNvPr id="22" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1467,12 +1542,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1498,7 +1583,7 @@
         <xdr:cNvPr id="23" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1602,7 @@
           <xdr:cNvPr id="24" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1560,8 +1645,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1571,7 +1656,7 @@
           <xdr:cNvPr id="25" name="直線コネクタ 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1611,7 +1696,7 @@
           <xdr:cNvPr id="26" name="直線コネクタ 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1651,7 +1736,7 @@
           <xdr:cNvPr id="27" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1689,12 +1774,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1704,7 +1799,7 @@
           <xdr:cNvPr id="28" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1742,12 +1837,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1757,7 +1862,7 @@
           <xdr:cNvPr id="29" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1795,12 +1900,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1826,7 +1941,7 @@
         <xdr:cNvPr id="30" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1960,7 @@
           <xdr:cNvPr id="31" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1888,8 +2003,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1899,7 +2014,7 @@
           <xdr:cNvPr id="32" name="直線コネクタ 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1939,7 +2054,7 @@
           <xdr:cNvPr id="33" name="直線コネクタ 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1979,7 +2094,7 @@
           <xdr:cNvPr id="34" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2017,13 +2132,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2032,7 +2150,7 @@
           <xdr:cNvPr id="35" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2070,12 +2188,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2085,7 +2213,7 @@
           <xdr:cNvPr id="36" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2123,12 +2251,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2524,12 +2662,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
     <col min="2" max="11" width="7.21875" style="2" customWidth="1"/>
@@ -2561,451 +2699,451 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="9.9499999999999993" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="3.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="90" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="3.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="3.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="74.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="3.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1">
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1"/>
     <row r="37" spans="2:11" ht="15" customHeight="1"/>
